--- a/Evaluation/eval003/sub0667/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub0667/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9375</v>
+        <v>0.92</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9137055837563451</v>
+        <v>0.9154228855721394</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8962264150943396</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9207920792079208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9178743961352657</v>
+        <v>0.9162561576354681</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9168632075471699</v>
+        <v>0.9158823529411765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9158415841584158</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9157899899458054</v>
+        <v>0.9158395216038038</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9168632075471699</v>
+        <v>0.9158823529411765</v>
       </c>
       <c r="C6" t="n">
         <v>0.9158415841584159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9157899899458053</v>
+        <v>0.9158395216038038</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
